--- a/测试小算例.xlsx
+++ b/测试小算例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\73133\Desktop\ST-Astar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\73133\Desktop\AGVproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44821A34-6BD5-4F77-81F6-464036E07A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A73873D-A833-4079-BC4B-E92A46A35007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14085" yWindow="1515" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sku_info" sheetId="1" r:id="rId1"/>
@@ -404,17 +404,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -428,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -456,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -512,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -568,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -610,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -736,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -750,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -848,13 +848,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46705BEE-4317-4558-BF14-97C2B9F49C6F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -871,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
@@ -881,70 +881,70 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="B2:E2" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ref="C2" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B2:E5" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ref="B3:D5" ca="1" si="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A3:E5" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ref="A4:A5" ca="1" si="2">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="B4">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
@@ -968,24 +968,24 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">SUM(demand!A2:A5)</f>
         <v>8</v>
       </c>
       <c r="B1">
         <f ca="1">SUM(demand!B2:B5)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <f ca="1">SUM(demand!C2:C5)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <f ca="1">SUM(demand!D2:D5)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1">
         <f>SUM(demand!E2:E5)</f>
